--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salgha/Documents/Time Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD884986-0A05-A046-99FE-5B71FEBB2461}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A38870-1FF6-654E-A5FA-2500025EAD10}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>STBB   Standby Outside KSA</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>JAHAD ALDAWOOD</t>
-  </si>
-  <si>
-    <t>KSA</t>
   </si>
 </sst>
 </file>
@@ -516,21 +513,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,13 +555,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -591,9 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="12" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,31 +672,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -754,6 +716,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12150,1010 +12142,989 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.01171875" style="68" customWidth="1"/>
-    <col min="2" max="2" width="16.44921875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="12.80859375" style="68" customWidth="1"/>
-    <col min="4" max="4" width="12.5390625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.515625" style="68" customWidth="1"/>
-    <col min="6" max="6" width="7.01171875" style="68" customWidth="1"/>
-    <col min="7" max="7" width="9.84375" style="68" customWidth="1"/>
-    <col min="8" max="8" width="7.01171875" style="68" customWidth="1"/>
-    <col min="9" max="9" width="12" style="68" customWidth="1"/>
-    <col min="10" max="10" width="10.515625" style="68" customWidth="1"/>
-    <col min="11" max="11" width="9.03515625" style="68" customWidth="1"/>
-    <col min="12" max="12" width="7.01171875" style="68" customWidth="1"/>
-    <col min="13" max="13" width="11.4609375" style="68" customWidth="1"/>
-    <col min="14" max="15" width="7.01171875" style="68" customWidth="1"/>
-    <col min="16" max="16" width="4.04296875" style="68" customWidth="1"/>
-    <col min="17" max="17" width="7.55078125" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28125" style="68" customWidth="1"/>
-    <col min="19" max="19" width="15.5078125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.515625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="20.6328125" style="68" customWidth="1"/>
-    <col min="22" max="16384" width="8.76171875" style="68"/>
+    <col min="1" max="1" width="7.01171875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="16.44921875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="12.80859375" style="60" customWidth="1"/>
+    <col min="4" max="4" width="12.5390625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.515625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="7.01171875" style="60" customWidth="1"/>
+    <col min="7" max="7" width="9.84375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="7.01171875" style="60" customWidth="1"/>
+    <col min="9" max="9" width="12" style="60" customWidth="1"/>
+    <col min="10" max="10" width="10.515625" style="60" customWidth="1"/>
+    <col min="11" max="11" width="9.03515625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="7.01171875" style="60" customWidth="1"/>
+    <col min="13" max="13" width="11.4609375" style="60" customWidth="1"/>
+    <col min="14" max="15" width="7.01171875" style="60" customWidth="1"/>
+    <col min="16" max="16" width="4.04296875" style="60" customWidth="1"/>
+    <col min="17" max="17" width="7.55078125" style="60" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28125" style="60" customWidth="1"/>
+    <col min="19" max="19" width="15.5078125" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.515625" style="60" customWidth="1"/>
+    <col min="21" max="21" width="20.6328125" style="60" customWidth="1"/>
+    <col min="22" max="16384" width="8.76171875" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="24" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="71"/>
     </row>
     <row r="3" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="64" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="84"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="71"/>
     </row>
     <row r="4" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="64" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="84"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="71"/>
     </row>
     <row r="5" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="24" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="84"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="85" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="87"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="26" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27" t="s">
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="70" t="s">
+      <c r="R7" s="6"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="62" t="s">
         <v>24</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="61" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="49"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="14"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="41"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="10"/>
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="49"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="14"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="41"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="10"/>
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="49"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="14"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="41"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="10"/>
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="49"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="14"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="41"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="10"/>
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="49"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="14"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="41"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="10"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="92" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="94"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="14"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="81"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="10"/>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="41"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="60"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="33"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="52"/>
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="41"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="60"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="33"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="52"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="41"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="33"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="60"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="52"/>
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="41"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="33"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="41"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="33"/>
     </row>
     <row r="19" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="30" t="str">
-        <f>IF(O19=O36, " ", "ERROR")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S19" s="50" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="T19" s="53"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="1:28" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="62"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="54"/>
     </row>
     <row r="21" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="31" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="75" t="s">
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="76"/>
+      <c r="T21" s="86"/>
     </row>
     <row r="22" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="76"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="86"/>
     </row>
     <row r="23" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="71" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="75" t="s">
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="76"/>
-      <c r="U23" s="11"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="76"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
     </row>
     <row r="25" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="78" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="75" t="s">
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="76"/>
+      <c r="T25" s="86"/>
     </row>
     <row r="26" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="77" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="85"/>
+      <c r="T26" s="86"/>
     </row>
     <row r="27" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="42"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="34"/>
     </row>
     <row r="28" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="72" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="74"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="84"/>
     </row>
     <row r="29" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="12" t="s">
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="42"/>
+      <c r="T29" s="34"/>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="21" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="12" t="s">
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="42"/>
+      <c r="T30" s="34"/>
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="12" t="s">
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="43"/>
+      <c r="T31" s="35"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="12" t="s">
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="42"/>
+      <c r="T32" s="34"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="22" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10" t="s">
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T33" s="42"/>
+      <c r="T33" s="34"/>
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="42"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="34"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="47"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="39"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="48"/>
-    </row>
-    <row r="36" spans="1:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="S36" s="3"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="S37" s="3"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="S38" s="3"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="S39" s="3"/>
+      <c r="T35" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="27">
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O21:R21"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="Q3:T3"/>
@@ -13166,14 +13137,11 @@
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="O13:T13"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salgha/Documents/Time Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A38870-1FF6-654E-A5FA-2500025EAD10}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2693786F-F6B0-AA4D-AB1F-4F5C34CE5674}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -509,11 +509,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -554,9 +563,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -568,9 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="12" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,9 +617,6 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,6 +651,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,25 +687,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -717,35 +726,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12144,97 +12147,97 @@
   </sheetPr>
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.01171875" style="60" customWidth="1"/>
-    <col min="2" max="2" width="16.44921875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="12.80859375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="12.5390625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.515625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="7.01171875" style="60" customWidth="1"/>
-    <col min="7" max="7" width="9.84375" style="60" customWidth="1"/>
-    <col min="8" max="8" width="7.01171875" style="60" customWidth="1"/>
-    <col min="9" max="9" width="12" style="60" customWidth="1"/>
-    <col min="10" max="10" width="10.515625" style="60" customWidth="1"/>
-    <col min="11" max="11" width="9.03515625" style="60" customWidth="1"/>
-    <col min="12" max="12" width="7.01171875" style="60" customWidth="1"/>
-    <col min="13" max="13" width="11.4609375" style="60" customWidth="1"/>
-    <col min="14" max="15" width="7.01171875" style="60" customWidth="1"/>
-    <col min="16" max="16" width="4.04296875" style="60" customWidth="1"/>
-    <col min="17" max="17" width="7.55078125" style="60" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28125" style="60" customWidth="1"/>
-    <col min="19" max="19" width="15.5078125" style="60" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.515625" style="60" customWidth="1"/>
-    <col min="21" max="21" width="20.6328125" style="60" customWidth="1"/>
-    <col min="22" max="16384" width="8.76171875" style="60"/>
+    <col min="1" max="1" width="7.01171875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="16.44921875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.80859375" style="52" customWidth="1"/>
+    <col min="4" max="4" width="12.5390625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="10.515625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="7.01171875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="9.84375" style="52" customWidth="1"/>
+    <col min="8" max="8" width="7.01171875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="12" style="52" customWidth="1"/>
+    <col min="10" max="10" width="10.515625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="9.03515625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="7.01171875" style="52" customWidth="1"/>
+    <col min="13" max="13" width="11.4609375" style="52" customWidth="1"/>
+    <col min="14" max="15" width="7.01171875" style="52" customWidth="1"/>
+    <col min="16" max="16" width="4.04296875" style="52" customWidth="1"/>
+    <col min="17" max="17" width="7.55078125" style="52" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28125" style="52" customWidth="1"/>
+    <col min="19" max="19" width="15.5078125" style="52" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.515625" style="52" customWidth="1"/>
+    <col min="21" max="21" width="20.6328125" style="52" customWidth="1"/>
+    <col min="22" max="16384" width="8.76171875" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="31"/>
+      <c r="T1" s="27"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="49"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="12"/>
       <c r="E2" s="4"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="50"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -12242,23 +12245,23 @@
       <c r="L2" s="14"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="69"/>
     </row>
     <row r="3" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="51"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -12266,23 +12269,23 @@
       <c r="L3" s="14"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="71"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="69"/>
     </row>
     <row r="4" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -12290,23 +12293,23 @@
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="71"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="51"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -12314,23 +12317,23 @@
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="51"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -12338,25 +12341,25 @@
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="72"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -12364,29 +12367,29 @@
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20" t="s">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="62" t="s">
+      <c r="T7" s="54" t="s">
         <v>24</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -12394,30 +12397,30 @@
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="53" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="41"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="37"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -12425,28 +12428,28 @@
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="43"/>
+      <c r="O9" s="38"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="41"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="37"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="51"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -12454,28 +12457,28 @@
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="41"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="52"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="37"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="51"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -12483,28 +12486,28 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="41"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="37"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="51"/>
+      <c r="G12" s="46"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -12512,28 +12515,28 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="41"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="37"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="51"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -12541,30 +12544,30 @@
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="79" t="s">
+      <c r="O13" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="81"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="79"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="51"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -12572,28 +12575,28 @@
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="33"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="29"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="52"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="51"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -12601,28 +12604,28 @@
       <c r="L15" s="14"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="33"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="29"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="52"/>
+      <c r="AA15" s="47"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="51"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -12630,28 +12633,28 @@
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="33"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="29"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="52"/>
+      <c r="AA16" s="47"/>
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="51"/>
+      <c r="G17" s="46"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -12659,23 +12662,23 @@
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="33"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="29"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="4"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="51"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -12683,21 +12686,21 @@
       <c r="L18" s="14"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="33"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="51"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -12705,23 +12708,23 @@
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="42" t="s">
+      <c r="O19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="T19" s="45"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="1:28" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="61"/>
+      <c r="E20" s="53"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -12729,21 +12732,21 @@
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="59"/>
     </row>
     <row r="21" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="61"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -12751,25 +12754,25 @@
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="90" t="s">
+      <c r="O21" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="85" t="s">
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="86"/>
+      <c r="T21" s="59"/>
     </row>
     <row r="22" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="61"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="51"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -12777,21 +12780,21 @@
       <c r="L22" s="14"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="86"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="59"/>
     </row>
     <row r="23" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="61"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="51"/>
+      <c r="G23" s="46"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -12799,26 +12802,26 @@
       <c r="L23" s="14"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="88" t="s">
+      <c r="O23" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="89"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="85" t="s">
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="86"/>
+      <c r="T23" s="59"/>
       <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="61"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="51"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -12826,21 +12829,21 @@
       <c r="L24" s="14"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="59"/>
     </row>
     <row r="25" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="61"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="51"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -12848,25 +12851,25 @@
       <c r="L25" s="14"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="88" t="s">
+      <c r="O25" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="85" t="s">
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="86"/>
+      <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="61"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="51"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -12874,23 +12877,23 @@
       <c r="L26" s="14"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="87" t="s">
+      <c r="O26" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="86"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="59"/>
     </row>
     <row r="27" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="61"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="46"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -12898,21 +12901,21 @@
       <c r="L27" s="14"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="34"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="59"/>
     </row>
     <row r="28" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="61"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="51"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -12920,23 +12923,23 @@
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="82" t="s">
+      <c r="O28" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="84"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="57"/>
     </row>
     <row r="29" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="61"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="51"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -12944,26 +12947,26 @@
       <c r="L29" s="14"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="63" t="s">
+      <c r="O29" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
       <c r="S29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="34"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="61"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="51"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -12971,26 +12974,26 @@
       <c r="L30" s="14"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="63" t="s">
+      <c r="O30" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
       <c r="S30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="34"/>
+      <c r="T30" s="30"/>
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="61"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="51"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -12998,26 +13001,26 @@
       <c r="L31" s="14"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="63" t="s">
+      <c r="O31" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
       <c r="S31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="35"/>
+      <c r="T31" s="31"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="61"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="51"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -13025,20 +13028,20 @@
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="63" t="s">
+      <c r="O32" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
       <c r="S32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="34"/>
+      <c r="T32" s="30"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="12"/>
@@ -13052,20 +13055,20 @@
       <c r="L33" s="9"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
       <c r="S33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T33" s="34"/>
+      <c r="T33" s="30"/>
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="4" t="s">
         <v>16</v>
       </c>
@@ -13081,50 +13084,47 @@
       <c r="L34" s="9"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="34"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="30"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="39"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="35"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="40"/>
+      <c r="T35" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O21:R21"/>
+  <mergeCells count="34">
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="Q3:T3"/>
@@ -13137,11 +13137,21 @@
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="O13:T13"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O27:T27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salgha/Documents/Time Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2693786F-F6B0-AA4D-AB1F-4F5C34CE5674}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F35FCC-E94B-1E4A-BABA-7CC338DB7001}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,13 +662,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -679,18 +672,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -726,29 +722,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12147,33 +12149,33 @@
   </sheetPr>
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.01171875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="16.44921875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="12.80859375" style="52" customWidth="1"/>
-    <col min="4" max="4" width="12.5390625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="10.515625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="7.01171875" style="52" customWidth="1"/>
-    <col min="7" max="7" width="9.84375" style="52" customWidth="1"/>
-    <col min="8" max="8" width="7.01171875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="12" style="52" customWidth="1"/>
-    <col min="10" max="10" width="10.515625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="9.03515625" style="52" customWidth="1"/>
-    <col min="12" max="12" width="7.01171875" style="52" customWidth="1"/>
-    <col min="13" max="13" width="11.4609375" style="52" customWidth="1"/>
-    <col min="14" max="15" width="7.01171875" style="52" customWidth="1"/>
-    <col min="16" max="16" width="4.04296875" style="52" customWidth="1"/>
-    <col min="17" max="17" width="7.55078125" style="52" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28125" style="52" customWidth="1"/>
-    <col min="19" max="19" width="15.5078125" style="52" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.515625" style="52" customWidth="1"/>
-    <col min="21" max="21" width="20.6328125" style="52" customWidth="1"/>
-    <col min="22" max="16384" width="8.76171875" style="52"/>
+    <col min="1" max="1" width="7.01171875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="16.44921875" style="51" customWidth="1"/>
+    <col min="3" max="3" width="12.80859375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="12.5390625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.515625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="7.01171875" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.84375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="7.01171875" style="51" customWidth="1"/>
+    <col min="9" max="9" width="12" style="51" customWidth="1"/>
+    <col min="10" max="10" width="10.515625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="9.03515625" style="51" customWidth="1"/>
+    <col min="12" max="12" width="7.01171875" style="51" customWidth="1"/>
+    <col min="13" max="13" width="11.4609375" style="51" customWidth="1"/>
+    <col min="14" max="15" width="7.01171875" style="51" customWidth="1"/>
+    <col min="16" max="16" width="4.04296875" style="51" customWidth="1"/>
+    <col min="17" max="17" width="7.55078125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="15.5078125" style="51" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.515625" style="51" customWidth="1"/>
+    <col min="21" max="21" width="20.6328125" style="51" customWidth="1"/>
+    <col min="22" max="16384" width="8.76171875" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -12233,11 +12235,11 @@
     <row r="2" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="44"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="12"/>
       <c r="E2" s="4"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="45"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -12245,14 +12247,14 @@
       <c r="L2" s="14"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="69"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
     </row>
     <row r="3" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28"/>
@@ -12261,7 +12263,7 @@
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="46"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -12269,14 +12271,14 @@
       <c r="L3" s="14"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="69"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
@@ -12285,7 +12287,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="46"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -12293,14 +12295,14 @@
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="69"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="67"/>
     </row>
     <row r="5" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
@@ -12309,7 +12311,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="46"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -12317,14 +12319,14 @@
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
     </row>
     <row r="6" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
@@ -12333,7 +12335,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="46"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -12341,14 +12343,14 @@
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="70" t="s">
+      <c r="O6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="72"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="70"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
@@ -12359,7 +12361,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -12376,7 +12378,7 @@
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="54" t="s">
+      <c r="T7" s="53" t="s">
         <v>24</v>
       </c>
       <c r="AA7" s="1"/>
@@ -12389,7 +12391,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -12397,19 +12399,19 @@
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="48" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="37"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="36"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="1"/>
     </row>
@@ -12420,7 +12422,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -12428,17 +12430,17 @@
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="38"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="37"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="36"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
       <c r="X9" s="10"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="1"/>
     </row>
@@ -12449,7 +12451,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="4"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -12457,17 +12459,17 @@
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="37"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="36"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="1"/>
     </row>
@@ -12478,7 +12480,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -12486,17 +12488,17 @@
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="37"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="36"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="1"/>
     </row>
@@ -12507,7 +12509,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -12515,17 +12517,17 @@
       <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="37"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="36"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="1"/>
     </row>
@@ -12536,7 +12538,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -12544,19 +12546,19 @@
       <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="77" t="s">
+      <c r="O13" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="79"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="77"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="1"/>
     </row>
@@ -12567,7 +12569,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="4"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -12578,15 +12580,15 @@
       <c r="O14" s="18"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="51"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="50"/>
       <c r="T14" s="29"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="47"/>
+      <c r="AA14" s="46"/>
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12596,7 +12598,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -12607,15 +12609,15 @@
       <c r="O15" s="18"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="50"/>
       <c r="T15" s="29"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="47"/>
+      <c r="AA15" s="46"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12625,7 +12627,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -12636,15 +12638,15 @@
       <c r="O16" s="18"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="51"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="50"/>
       <c r="T16" s="29"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="47"/>
+      <c r="AA16" s="46"/>
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12654,7 +12656,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -12665,8 +12667,8 @@
       <c r="O17" s="18"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="51"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50"/>
       <c r="T17" s="29"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -12678,7 +12680,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="4"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -12689,8 +12691,8 @@
       <c r="O18" s="18"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="66"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="64"/>
       <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12700,7 +12702,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -12708,23 +12710,23 @@
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="86" t="s">
+      <c r="O19" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="40"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="39"/>
     </row>
     <row r="20" spans="1:28" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="53"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -12732,21 +12734,21 @@
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="59"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="56"/>
     </row>
     <row r="21" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -12754,25 +12756,25 @@
       <c r="L21" s="14"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="63" t="s">
+      <c r="O21" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="58" t="s">
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="59"/>
+      <c r="T21" s="56"/>
     </row>
     <row r="22" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="28"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="46"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -12780,21 +12782,21 @@
       <c r="L22" s="14"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="59"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="56"/>
     </row>
     <row r="23" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="46"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -12802,16 +12804,16 @@
       <c r="L23" s="14"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="61" t="s">
+      <c r="O23" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="58" t="s">
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="59"/>
+      <c r="T23" s="56"/>
       <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12819,9 +12821,9 @@
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="53"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="46"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -12829,21 +12831,21 @@
       <c r="L24" s="14"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="58"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="59"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="56"/>
     </row>
     <row r="25" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="53"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="46"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -12851,25 +12853,25 @@
       <c r="L25" s="14"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
-      <c r="O25" s="61" t="s">
+      <c r="O25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="58" t="s">
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="59"/>
+      <c r="T25" s="56"/>
     </row>
     <row r="26" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="53"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="46"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -12877,23 +12879,23 @@
       <c r="L26" s="14"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="60" t="s">
+      <c r="O26" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="59"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="56"/>
     </row>
     <row r="27" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="28"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="53"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="46"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -12901,21 +12903,21 @@
       <c r="L27" s="14"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="59"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="56"/>
     </row>
     <row r="28" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="28"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="53"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="46"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -12923,23 +12925,23 @@
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="55" t="s">
+      <c r="O28" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="57"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="84"/>
     </row>
     <row r="29" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="28"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="53"/>
+      <c r="E29" s="52"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="46"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -12947,16 +12949,16 @@
       <c r="L29" s="14"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
-      <c r="O29" s="80" t="s">
+      <c r="O29" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="8" t="s">
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="30"/>
+      <c r="T29" s="87"/>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12964,9 +12966,9 @@
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="46"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -12974,16 +12976,16 @@
       <c r="L30" s="14"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="8" t="s">
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="30"/>
+      <c r="T30" s="87"/>
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12991,9 +12993,9 @@
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="53"/>
+      <c r="E31" s="52"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="46"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -13001,16 +13003,16 @@
       <c r="L31" s="14"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="8" t="s">
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="31"/>
+      <c r="T31" s="87"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13018,9 +13020,9 @@
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="46"/>
+      <c r="G32" s="45"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -13028,16 +13030,16 @@
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="80" t="s">
+      <c r="O32" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="8" t="s">
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="30"/>
+      <c r="T32" s="87"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13055,16 +13057,16 @@
       <c r="L33" s="9"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="82" t="s">
+      <c r="O33" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="6" t="s">
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="T33" s="30"/>
+      <c r="T33" s="87"/>
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -13084,45 +13086,55 @@
       <c r="L34" s="9"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="48"/>
+      <c r="S34" s="47"/>
       <c r="T34" s="30"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="35"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="36"/>
+      <c r="T35" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
+  <mergeCells count="39">
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S23:T24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="S25:T26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O27:T27"/>
     <mergeCell ref="O32:R32"/>
     <mergeCell ref="O33:R33"/>
     <mergeCell ref="R18:S18"/>
@@ -13139,19 +13151,14 @@
     <mergeCell ref="O13:T13"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S23:T24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="S25:T26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salgha/Documents/Time Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04F35FCC-E94B-1E4A-BABA-7CC338DB7001}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{03BC84B7-3F43-CA43-93DC-E7E1E92B94D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A0E618-F534-8B45-80A9-EFF49A1A54A0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,10 +522,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,20 +589,12 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,8 +602,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,9 +639,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -662,7 +648,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,15 +682,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,35 +732,29 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12147,202 +12151,202 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="F24" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.01171875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="16.44921875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="12.80859375" style="51" customWidth="1"/>
-    <col min="4" max="4" width="12.5390625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="10.515625" style="51" customWidth="1"/>
-    <col min="6" max="6" width="7.01171875" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.84375" style="51" customWidth="1"/>
-    <col min="8" max="8" width="7.01171875" style="51" customWidth="1"/>
-    <col min="9" max="9" width="12" style="51" customWidth="1"/>
-    <col min="10" max="10" width="10.515625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="9.03515625" style="51" customWidth="1"/>
-    <col min="12" max="12" width="7.01171875" style="51" customWidth="1"/>
-    <col min="13" max="13" width="11.4609375" style="51" customWidth="1"/>
-    <col min="14" max="15" width="7.01171875" style="51" customWidth="1"/>
-    <col min="16" max="16" width="4.04296875" style="51" customWidth="1"/>
-    <col min="17" max="17" width="7.55078125" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="15.5078125" style="51" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.515625" style="51" customWidth="1"/>
-    <col min="21" max="21" width="20.6328125" style="51" customWidth="1"/>
-    <col min="22" max="16384" width="8.76171875" style="51"/>
+    <col min="1" max="1" width="7.01171875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="16.44921875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="12.80859375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="12.5390625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="10.515625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="7.01171875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="9.84375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="7.01171875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="12" style="43" customWidth="1"/>
+    <col min="10" max="10" width="10.515625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.03515625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="7.01171875" style="43" customWidth="1"/>
+    <col min="13" max="13" width="11.4609375" style="43" customWidth="1"/>
+    <col min="14" max="15" width="7.01171875" style="43" customWidth="1"/>
+    <col min="16" max="16" width="4.04296875" style="43" customWidth="1"/>
+    <col min="17" max="17" width="7.55078125" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28125" style="43" customWidth="1"/>
+    <col min="19" max="19" width="15.5078125" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.515625" style="43" customWidth="1"/>
+    <col min="21" max="21" width="20.6328125" style="43" customWidth="1"/>
+    <col min="22" max="16384" width="8.76171875" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
+      <c r="O1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="78" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="79"/>
+      <c r="P2" s="51"/>
       <c r="Q2" s="65"/>
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
       <c r="T2" s="67"/>
     </row>
     <row r="3" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="80" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="81"/>
+      <c r="P3" s="49"/>
       <c r="Q3" s="65"/>
       <c r="R3" s="66"/>
       <c r="S3" s="66"/>
       <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="80" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="81"/>
+      <c r="P4" s="49"/>
       <c r="Q4" s="65"/>
       <c r="R4" s="66"/>
       <c r="S4" s="66"/>
       <c r="T4" s="67"/>
     </row>
     <row r="5" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="78" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="79"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="65"/>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
       <c r="T5" s="67"/>
     </row>
     <row r="6" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="68" t="s">
         <v>21</v>
       </c>
@@ -12355,197 +12359,197 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17" t="s">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="53" t="s">
+      <c r="R7" s="5"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="45" t="s">
         <v>24</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="47" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="38"/>
+      <c r="Q8" s="31"/>
       <c r="R8" s="71"/>
       <c r="S8" s="72"/>
-      <c r="T8" s="36"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="10"/>
+      <c r="T8" s="29"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="9"/>
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="42"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="73"/>
       <c r="S9" s="74"/>
-      <c r="T9" s="36"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="10"/>
+      <c r="T9" s="29"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="9"/>
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="38"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="71"/>
       <c r="S10" s="72"/>
-      <c r="T10" s="36"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="10"/>
+      <c r="T10" s="29"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="9"/>
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="38"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="71"/>
       <c r="S11" s="72"/>
-      <c r="T11" s="36"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="10"/>
+      <c r="T11" s="29"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="9"/>
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="38"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="71"/>
       <c r="S12" s="72"/>
-      <c r="T12" s="36"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="10"/>
+      <c r="T12" s="29"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="9"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="75" t="s">
         <v>1</v>
       </c>
@@ -12554,187 +12558,187 @@
       <c r="R13" s="76"/>
       <c r="S13" s="76"/>
       <c r="T13" s="77"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="10"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="9"/>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="29"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="46"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="25"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="39"/>
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="29"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="46"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="25"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="39"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="29"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="25"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="46"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="39"/>
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="29"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="25"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="63"/>
       <c r="S18" s="64"/>
-      <c r="T18" s="29"/>
+      <c r="T18" s="25"/>
     </row>
     <row r="19" spans="1:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="57" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="39"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="32"/>
     </row>
     <row r="20" spans="1:28" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="54"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="55"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
@@ -12742,47 +12746,47 @@
       <c r="T20" s="56"/>
     </row>
     <row r="21" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="78" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
       <c r="S21" s="55" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="56"/>
     </row>
     <row r="22" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="54"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="57"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
       <c r="R22" s="55"/>
@@ -12790,48 +12794,48 @@
       <c r="T22" s="56"/>
     </row>
     <row r="23" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="80" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
       <c r="S23" s="55" t="s">
         <v>5</v>
       </c>
       <c r="T23" s="56"/>
-      <c r="U23" s="7"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="54"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="55"/>
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
@@ -12839,47 +12843,47 @@
       <c r="T24" s="56"/>
     </row>
     <row r="25" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="80" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="55" t="s">
         <v>5</v>
       </c>
       <c r="T25" s="56"/>
     </row>
     <row r="26" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="54" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="57" t="s">
         <v>41</v>
       </c>
       <c r="P26" s="55"/>
@@ -12889,21 +12893,21 @@
       <c r="T26" s="56"/>
     </row>
     <row r="27" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="54"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="57"/>
       <c r="P27" s="55"/>
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
@@ -12911,215 +12915,242 @@
       <c r="T27" s="56"/>
     </row>
     <row r="28" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="82" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="84"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
     </row>
     <row r="29" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="59" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60" t="s">
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="87"/>
+      <c r="T29" s="47"/>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="59" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60" t="s">
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="87"/>
+      <c r="T30" s="47"/>
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="59" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60" t="s">
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T31" s="87"/>
+      <c r="T31" s="47"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="59" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60" t="s">
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="87"/>
+      <c r="T32" s="47"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
       <c r="O33" s="61" t="s">
         <v>35</v>
       </c>
       <c r="P33" s="62"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="60" t="s">
+      <c r="S33" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T33" s="87"/>
+      <c r="T33" s="47"/>
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="28"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="30"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="56"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="35"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="85"/>
     </row>
+    <row r="36" spans="1:21" ht="13.5" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="42">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O20:T20"/>
     <mergeCell ref="S32:T32"/>
     <mergeCell ref="S33:T33"/>
     <mergeCell ref="O4:P4"/>
@@ -13136,29 +13167,6 @@
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O27:T27"/>
     <mergeCell ref="O32:R32"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
